--- a/Priority Queue/ATS.xlsx
+++ b/Priority Queue/ATS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TSN\Priority Queue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCChen\Documents\GitHub\TSN\Priority Queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073EE058-98BD-4830-9646-24280059591F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E391E2-E58D-4EDF-8FFF-F9429C2BB1B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{91CC5245-BB3B-42BD-8CB1-FFD6A74AC878}"/>
   </bookViews>
@@ -186,11 +186,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>ATS</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-              <a:t> Latency</a:t>
+              <a:t>ATS Latency</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -338,7 +334,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{00000000-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -449,7 +445,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{00000001-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -560,7 +556,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{00000002-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -671,7 +667,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{00000003-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -782,7 +778,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{00000004-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -893,7 +889,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{00000005-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1006,7 +1002,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{00000006-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1119,7 +1115,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{00000007-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1232,7 +1228,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{00000008-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1345,7 +1341,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{00000009-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1458,7 +1454,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{0000000A-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1571,7 +1567,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{0000000B-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1685,7 +1681,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{0000000C-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1799,7 +1795,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{0000000D-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1913,7 +1909,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-AA80-4FA1-88DE-4C29CA70D706}"/>
+              <c16:uniqueId val="{0000000E-230B-4826-B473-07021224CD7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1926,16 +1922,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1111986032"/>
-        <c:axId val="839550704"/>
+        <c:axId val="769971584"/>
+        <c:axId val="761672672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1111986032"/>
+        <c:axId val="769971584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1972,7 +1969,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839550704"/>
+        <c:crossAx val="761672672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1980,7 +1977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="839550704"/>
+        <c:axId val="761672672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2028,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1111986032"/>
+        <c:crossAx val="769971584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2045,10 +2042,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2080,13 +2073,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2682,23 +2668,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4">
+        <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEE69CE-9E51-4BBC-BC8B-7404B954E4D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5405933-3ACC-474E-9674-53A940B55E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3005,7 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
